--- a/Report/Bounds.xlsx
+++ b/Report/Bounds.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="8445" windowHeight="7785"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="8445" windowHeight="5685"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Bound</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Lower</t>
+  </si>
+  <si>
+    <t>30x30</t>
+  </si>
+  <si>
+    <t>25x25</t>
   </si>
 </sst>
 </file>
@@ -198,19 +204,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,6 +222,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,41 +541,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -578,25 +588,25 @@
         <f>SQRT(C3)</f>
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <f>C3-1</f>
         <v>8</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <f>ROUNDUP(D3^2*(D3+1)/6,0)</f>
         <v>6</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <f>ROUNDUP(D3^3/4,0)</f>
         <v>7</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="9">
         <f>MAX(E3,F3,G3)</f>
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -604,28 +614,28 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D22" si="0">SQRT(C4)</f>
+        <f t="shared" ref="D4:D13" si="0">SQRT(C4)</f>
         <v>4</v>
       </c>
-      <c r="E4" s="3">
-        <f t="shared" ref="E4:E22" si="1">C4-1</f>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E13" si="1">C4-1</f>
         <v>15</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <f>ROUNDUP(D4^2*(D4+1)/6,0)</f>
         <v>14</v>
       </c>
-      <c r="G4" s="6">
-        <f t="shared" ref="G4:G12" si="2">ROUNDUP(D4^3/4,0)</f>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G13" si="2">ROUNDUP(D4^3/4,0)</f>
         <v>16</v>
       </c>
-      <c r="H4" s="12">
-        <f t="shared" ref="H4:H22" si="3">MAX(E4,F4,G4)</f>
+      <c r="H4" s="9">
+        <f t="shared" ref="H4:H13" si="3">MAX(E4,F4,G4)</f>
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>9</v>
       </c>
@@ -636,25 +646,25 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <f t="shared" ref="F5:F9" si="4">ROUNDUP(D5^2*(D5+1)/6,0)</f>
         <v>25</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="9">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -665,25 +675,25 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="6"/>
+      <c r="A7" s="3"/>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -694,25 +704,25 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="9">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -723,25 +733,25 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="9">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6"/>
+      <c r="A9" s="3"/>
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -752,25 +762,25 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="3">
         <f t="shared" si="2"/>
         <v>183</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="9">
         <f t="shared" si="3"/>
         <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -781,25 +791,25 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <f>ROUNDUP(D10^2*(D10+1)/6,0)</f>
         <v>184</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="3">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="9">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -810,25 +820,25 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
         <v>224</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <f>ROUNDUP(D11^2*(D11+1)/6,0)</f>
         <v>600</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="3">
         <f t="shared" si="2"/>
         <v>844</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="9">
         <f t="shared" si="3"/>
         <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -839,313 +849,427 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <f t="shared" si="1"/>
         <v>399</v>
       </c>
-      <c r="F12" s="4">
-        <f t="shared" ref="F12" si="5">ROUNDUP(D12^2*(D12+1)/6,0)</f>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:F13" si="5">ROUNDUP(D12^2*(D12+1)/6,0)</f>
         <v>1400</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="3">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="9">
         <f t="shared" si="3"/>
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>625</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E13" s="16">
+        <f t="shared" si="1"/>
+        <v>624</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="5"/>
+        <v>2709</v>
+      </c>
+      <c r="G13" s="15">
+        <f t="shared" si="2"/>
+        <v>3907</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="3"/>
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>900</v>
+      </c>
+      <c r="D14">
+        <f>SQRT(C14)</f>
+        <v>30</v>
+      </c>
+      <c r="E14" s="16">
+        <f>C14-1</f>
+        <v>899</v>
+      </c>
+      <c r="F14" s="14">
+        <f>ROUNDUP(D14^2*(D14+1)/6,0)</f>
+        <v>4650</v>
+      </c>
+      <c r="G14" s="15">
+        <f>ROUNDUP(D14^3/4,0)</f>
+        <v>6750</v>
+      </c>
+      <c r="H14" s="17">
+        <f>MAX(E14,F14,G14)</f>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <f>SQRT(C15)</f>
         <v>3</v>
       </c>
-      <c r="E13" s="3">
-        <f t="shared" si="1"/>
+      <c r="E15" s="1">
+        <f>C15-1</f>
         <v>8</v>
       </c>
-      <c r="F13" s="4">
-        <f>ROUNDUP((D13^3-D13)/8,0)</f>
+      <c r="F15" s="2">
+        <f>ROUNDUP((D15^3-D15)/8,0)</f>
         <v>3</v>
       </c>
-      <c r="G13" s="6">
-        <f>ROUNDUP((D13^3)/8,0)</f>
+      <c r="G15" s="3">
+        <f>ROUNDUP((D15^3)/8,0)</f>
         <v>4</v>
       </c>
-      <c r="H13" s="12">
-        <f t="shared" si="3"/>
+      <c r="H15" s="9">
+        <f>MAX(E15,F15,G15)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6"/>
-      <c r="B14" t="s">
+    <row r="16" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>16</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
+      <c r="D16">
+        <f>SQRT(C16)</f>
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <f t="shared" si="1"/>
+      <c r="E16" s="1">
+        <f>C16-1</f>
         <v>15</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" ref="F14:F22" si="6">ROUNDUP((D14^3-D14)/8,0)</f>
+      <c r="F16" s="2">
+        <f t="shared" ref="F16:F26" si="6">ROUNDUP((D16^3-D16)/8,0)</f>
         <v>8</v>
       </c>
-      <c r="G14" s="6">
-        <f t="shared" ref="G14:G22" si="7">ROUNDUP((D14^3)/8,0)</f>
+      <c r="G16" s="3">
+        <f t="shared" ref="G16:G26" si="7">ROUNDUP((D16^3)/8,0)</f>
         <v>8</v>
       </c>
-      <c r="H14" s="12">
-        <f t="shared" si="3"/>
+      <c r="H16" s="9">
+        <f>MAX(E16,F16,G16)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="6"/>
-      <c r="B15" t="s">
+    <row r="17" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C17">
         <v>25</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
+      <c r="D17">
+        <f>SQRT(C17)</f>
         <v>5</v>
       </c>
-      <c r="E15" s="3">
-        <f t="shared" si="1"/>
+      <c r="E17" s="1">
+        <f>C17-1</f>
         <v>24</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F17" s="2">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G17" s="3">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="H15" s="12">
-        <f t="shared" si="3"/>
+      <c r="H17" s="9">
+        <f>MAX(E17,F17,G17)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="6"/>
-      <c r="B16" t="s">
+    <row r="18" spans="1:8">
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="C18">
         <v>36</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="0"/>
+      <c r="D18">
+        <f>SQRT(C18)</f>
         <v>6</v>
       </c>
-      <c r="E16" s="3">
-        <f t="shared" si="1"/>
+      <c r="E18" s="1">
+        <f>C18-1</f>
         <v>35</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F18" s="2">
         <f t="shared" si="6"/>
         <v>27</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G18" s="3">
         <f t="shared" si="7"/>
         <v>27</v>
       </c>
-      <c r="H16" s="12">
-        <f t="shared" si="3"/>
+      <c r="H18" s="9">
+        <f>MAX(E18,F18,G18)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>49</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
+      <c r="D19">
+        <f>SQRT(C19)</f>
         <v>7</v>
       </c>
-      <c r="E17" s="3">
-        <f t="shared" si="1"/>
+      <c r="E19" s="1">
+        <f>C19-1</f>
         <v>48</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F19" s="2">
         <f t="shared" si="6"/>
         <v>42</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G19" s="3">
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="H17" s="12">
-        <f t="shared" si="3"/>
+      <c r="H19" s="9">
+        <f>MAX(E19,F19,G19)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="B18" t="s">
+    <row r="20" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>64</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="0"/>
+      <c r="D20">
+        <f>SQRT(C20)</f>
         <v>8</v>
       </c>
-      <c r="E18" s="3">
-        <f t="shared" si="1"/>
+      <c r="E20" s="1">
+        <f>C20-1</f>
         <v>63</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F20" s="2">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G20" s="3">
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="H18" s="12">
-        <f t="shared" si="3"/>
+      <c r="H20" s="9">
+        <f>MAX(E20,F20,G20)</f>
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6"/>
-      <c r="B19" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="3"/>
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C19">
+      <c r="C21">
         <v>81</v>
       </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
+      <c r="D21">
+        <f>SQRT(C21)</f>
         <v>9</v>
       </c>
-      <c r="E19" s="3">
-        <f t="shared" si="1"/>
+      <c r="E21" s="1">
+        <f>C21-1</f>
         <v>80</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F21" s="2">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G21" s="3">
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="H19" s="12">
-        <f t="shared" si="3"/>
+      <c r="H21" s="9">
+        <f>MAX(E21,F21,G21)</f>
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6"/>
-      <c r="B20" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>100</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
+      <c r="D22">
+        <f>SQRT(C22)</f>
         <v>10</v>
       </c>
-      <c r="E20" s="3">
-        <f t="shared" si="1"/>
+      <c r="E22" s="1">
+        <f>C22-1</f>
         <v>99</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F22" s="2">
         <f t="shared" si="6"/>
         <v>124</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G22" s="3">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="H20" s="12">
-        <f t="shared" si="3"/>
+      <c r="H22" s="9">
+        <f>MAX(E22,F22,G22)</f>
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6"/>
-      <c r="B21" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C21">
+      <c r="C23">
         <v>225</v>
       </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
+      <c r="D23">
+        <f>SQRT(C23)</f>
         <v>15</v>
       </c>
-      <c r="E21" s="3">
-        <f t="shared" si="1"/>
+      <c r="E23" s="1">
+        <f>C23-1</f>
         <v>224</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F23" s="2">
         <f t="shared" si="6"/>
         <v>420</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G23" s="3">
         <f t="shared" si="7"/>
         <v>422</v>
       </c>
-      <c r="H21" s="12">
-        <f t="shared" si="3"/>
+      <c r="H23" s="9">
+        <f>MAX(E23,F23,G23)</f>
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6"/>
-      <c r="B22" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
         <v>16</v>
       </c>
-      <c r="C22">
+      <c r="C24">
         <v>400</v>
       </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
+      <c r="D24">
+        <f>SQRT(C24)</f>
         <v>20</v>
       </c>
-      <c r="E22" s="3">
-        <f t="shared" si="1"/>
+      <c r="E24" s="1">
+        <f>C24-1</f>
         <v>399</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F24" s="2">
         <f t="shared" si="6"/>
         <v>998</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G24" s="3">
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
-      <c r="H22" s="12">
-        <f t="shared" si="3"/>
+      <c r="H24" s="9">
+        <f>MAX(E24,F24,G24)</f>
         <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>625</v>
+      </c>
+      <c r="D25">
+        <f>SQRT(C25)</f>
+        <v>25</v>
+      </c>
+      <c r="E25" s="16">
+        <f>C25-1</f>
+        <v>624</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="6"/>
+        <v>1950</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="7"/>
+        <v>1954</v>
+      </c>
+      <c r="H25" s="17">
+        <f>MAX(E25,F25,G25)</f>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>900</v>
+      </c>
+      <c r="D26">
+        <f>SQRT(C26)</f>
+        <v>30</v>
+      </c>
+      <c r="E26" s="16">
+        <f>C26-1</f>
+        <v>899</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="6"/>
+        <v>3372</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="7"/>
+        <v>3375</v>
+      </c>
+      <c r="H26" s="17">
+        <f>MAX(E26,F26,G26)</f>
+        <v>3375</v>
       </c>
     </row>
   </sheetData>

--- a/Report/Bounds.xlsx
+++ b/Report/Bounds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Bound</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>25x25</t>
+  </si>
+  <si>
+    <t>16x16</t>
   </si>
 </sst>
 </file>
@@ -222,6 +225,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,10 +238,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,11 +544,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
@@ -878,19 +881,19 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="13">
         <f t="shared" si="1"/>
         <v>624</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="11">
         <f t="shared" si="5"/>
         <v>2709</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="12">
         <f t="shared" si="2"/>
         <v>3907</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="14">
         <f t="shared" si="3"/>
         <v>3907</v>
       </c>
@@ -904,23 +907,23 @@
         <v>900</v>
       </c>
       <c r="D14">
-        <f>SQRT(C14)</f>
+        <f t="shared" ref="D14:D26" si="6">SQRT(C14)</f>
         <v>30</v>
       </c>
-      <c r="E14" s="16">
-        <f>C14-1</f>
+      <c r="E14" s="13">
+        <f t="shared" ref="E14:E26" si="7">C14-1</f>
         <v>899</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="11">
         <f>ROUNDUP(D14^2*(D14+1)/6,0)</f>
         <v>4650</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="12">
         <f>ROUNDUP(D14^3/4,0)</f>
         <v>6750</v>
       </c>
-      <c r="H14" s="17">
-        <f>MAX(E14,F14,G14)</f>
+      <c r="H14" s="14">
+        <f t="shared" ref="H14:H26" si="8">MAX(E14,F14,G14)</f>
         <v>6750</v>
       </c>
     </row>
@@ -935,11 +938,11 @@
         <v>9</v>
       </c>
       <c r="D15">
-        <f>SQRT(C15)</f>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="E15" s="1">
-        <f>C15-1</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="F15" s="2">
@@ -951,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="9">
-        <f>MAX(E15,F15,G15)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
     </row>
@@ -964,23 +967,23 @@
         <v>16</v>
       </c>
       <c r="D16">
-        <f>SQRT(C16)</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <f>C16-1</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ref="F16:F26" si="6">ROUNDUP((D16^3-D16)/8,0)</f>
+        <f t="shared" ref="F16:F26" si="9">ROUNDUP((D16^3-D16)/8,0)</f>
         <v>8</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" ref="G16:G26" si="7">ROUNDUP((D16^3)/8,0)</f>
+        <f t="shared" ref="G16:G26" si="10">ROUNDUP((D16^3)/8,0)</f>
         <v>8</v>
       </c>
       <c r="H16" s="9">
-        <f>MAX(E16,F16,G16)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
@@ -993,23 +996,23 @@
         <v>25</v>
       </c>
       <c r="D17">
-        <f>SQRT(C17)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="E17" s="1">
-        <f>C17-1</f>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="H17" s="9">
-        <f>MAX(E17,F17,G17)</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
     </row>
@@ -1022,23 +1025,23 @@
         <v>36</v>
       </c>
       <c r="D18">
-        <f>SQRT(C18)</f>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="E18" s="1">
-        <f>C18-1</f>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="H18" s="9">
-        <f>MAX(E18,F18,G18)</f>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
     </row>
@@ -1051,23 +1054,23 @@
         <v>49</v>
       </c>
       <c r="D19">
-        <f>SQRT(C19)</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="E19" s="1">
-        <f>C19-1</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
       <c r="H19" s="9">
-        <f>MAX(E19,F19,G19)</f>
+        <f t="shared" si="8"/>
         <v>48</v>
       </c>
     </row>
@@ -1080,23 +1083,23 @@
         <v>64</v>
       </c>
       <c r="D20">
-        <f>SQRT(C20)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="E20" s="1">
-        <f>C20-1</f>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="H20" s="9">
-        <f>MAX(E20,F20,G20)</f>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
     </row>
@@ -1109,23 +1112,23 @@
         <v>81</v>
       </c>
       <c r="D21">
-        <f>SQRT(C21)</f>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="E21" s="1">
-        <f>C21-1</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>92</v>
       </c>
       <c r="H21" s="9">
-        <f>MAX(E21,F21,G21)</f>
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
     </row>
@@ -1138,23 +1141,23 @@
         <v>100</v>
       </c>
       <c r="D22">
-        <f>SQRT(C22)</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="E22" s="1">
-        <f>C22-1</f>
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>124</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
       <c r="H22" s="9">
-        <f>MAX(E22,F22,G22)</f>
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
     </row>
@@ -1167,108 +1170,136 @@
         <v>225</v>
       </c>
       <c r="D23">
-        <f>SQRT(C23)</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="E23" s="1">
-        <f>C23-1</f>
+        <f t="shared" si="7"/>
         <v>224</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>420</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>422</v>
       </c>
       <c r="H23" s="9">
-        <f>MAX(E23,F23,G23)</f>
+        <f t="shared" si="8"/>
         <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>256</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="C24">
-        <v>400</v>
-      </c>
-      <c r="D24">
-        <f>SQRT(C24)</f>
-        <v>20</v>
-      </c>
-      <c r="E24" s="1">
-        <f>C24-1</f>
-        <v>399</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="6"/>
-        <v>998</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="E24" s="13">
         <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="H24" s="9">
-        <f>MAX(E24,F24,G24)</f>
-        <v>1000</v>
+        <v>255</v>
+      </c>
+      <c r="F24" s="11">
+        <f t="shared" si="9"/>
+        <v>510</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="10"/>
+        <v>512</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" si="8"/>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C25">
-        <v>625</v>
+        <v>400</v>
       </c>
       <c r="D25">
         <f>SQRT(C25)</f>
-        <v>25</v>
-      </c>
-      <c r="E25" s="16">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1">
         <f>C25-1</f>
-        <v>624</v>
-      </c>
-      <c r="F25" s="14">
-        <f t="shared" si="6"/>
-        <v>1950</v>
-      </c>
-      <c r="G25" s="15">
-        <f t="shared" si="7"/>
-        <v>1954</v>
-      </c>
-      <c r="H25" s="17">
+        <v>399</v>
+      </c>
+      <c r="F25" s="2">
+        <f>ROUNDUP((D25^3-D25)/8,0)</f>
+        <v>998</v>
+      </c>
+      <c r="G25" s="3">
+        <f>ROUNDUP((D25^3)/8,0)</f>
+        <v>1000</v>
+      </c>
+      <c r="H25" s="9">
         <f>MAX(E25,F25,G25)</f>
-        <v>1954</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="D26">
         <f>SQRT(C26)</f>
+        <v>25</v>
+      </c>
+      <c r="E26" s="13">
+        <f>C26-1</f>
+        <v>624</v>
+      </c>
+      <c r="F26" s="11">
+        <f>ROUNDUP((D26^3-D26)/8,0)</f>
+        <v>1950</v>
+      </c>
+      <c r="G26" s="12">
+        <f>ROUNDUP((D26^3)/8,0)</f>
+        <v>1954</v>
+      </c>
+      <c r="H26" s="14">
+        <f>MAX(E26,F26,G26)</f>
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>900</v>
+      </c>
+      <c r="D27">
+        <f>SQRT(C27)</f>
         <v>30</v>
       </c>
-      <c r="E26" s="16">
-        <f>C26-1</f>
+      <c r="E27" s="13">
+        <f>C27-1</f>
         <v>899</v>
       </c>
-      <c r="F26" s="14">
-        <f t="shared" si="6"/>
+      <c r="F27" s="11">
+        <f>ROUNDUP((D27^3-D27)/8,0)</f>
         <v>3372</v>
       </c>
-      <c r="G26" s="15">
-        <f t="shared" si="7"/>
+      <c r="G27" s="12">
+        <f>ROUNDUP((D27^3)/8,0)</f>
         <v>3375</v>
       </c>
-      <c r="H26" s="17">
-        <f>MAX(E26,F26,G26)</f>
+      <c r="H27" s="14">
+        <f>MAX(E27,F27,G27)</f>
         <v>3375</v>
       </c>
     </row>

--- a/Report/Bounds.xlsx
+++ b/Report/Bounds.xlsx
@@ -907,11 +907,11 @@
         <v>900</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D26" si="6">SQRT(C14)</f>
+        <f t="shared" ref="D14:D24" si="6">SQRT(C14)</f>
         <v>30</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" ref="E14:E26" si="7">C14-1</f>
+        <f t="shared" ref="E14:E24" si="7">C14-1</f>
         <v>899</v>
       </c>
       <c r="F14" s="11">
@@ -923,7 +923,7 @@
         <v>6750</v>
       </c>
       <c r="H14" s="14">
-        <f t="shared" ref="H14:H26" si="8">MAX(E14,F14,G14)</f>
+        <f t="shared" ref="H14:H24" si="8">MAX(E14,F14,G14)</f>
         <v>6750</v>
       </c>
     </row>
@@ -975,11 +975,11 @@
         <v>15</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ref="F16:F26" si="9">ROUNDUP((D16^3-D16)/8,0)</f>
+        <f t="shared" ref="F16:F24" si="9">ROUNDUP((D16^3-D16)/8,0)</f>
         <v>8</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" ref="G16:G26" si="10">ROUNDUP((D16^3)/8,0)</f>
+        <f t="shared" ref="G16:G24" si="10">ROUNDUP((D16^3)/8,0)</f>
         <v>8</v>
       </c>
       <c r="H16" s="9">

--- a/Report/Bounds.xlsx
+++ b/Report/Bounds.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Bound</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>16x16</t>
+  </si>
+  <si>
+    <t>17x17</t>
+  </si>
+  <si>
+    <t>18x18</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -599,10 +605,7 @@
         <f>ROUNDUP(D3^2*(D3+1)/6,0)</f>
         <v>6</v>
       </c>
-      <c r="G3" s="3">
-        <f>ROUNDUP(D3^3/4,0)</f>
-        <v>7</v>
-      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="9">
         <f>MAX(E3,F3,G3)</f>
         <v>8</v>
@@ -617,11 +620,11 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D13" si="0">SQRT(C4)</f>
+        <f t="shared" ref="D4:D16" si="0">SQRT(C4)</f>
         <v>4</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E13" si="1">C4-1</f>
+        <f t="shared" ref="E4:E16" si="1">C4-1</f>
         <v>15</v>
       </c>
       <c r="F4" s="2">
@@ -629,11 +632,11 @@
         <v>14</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G13" si="2">ROUNDUP(D4^3/4,0)</f>
+        <f t="shared" ref="G4:G15" si="2">ROUNDUP(D4^3/4,0)</f>
         <v>16</v>
       </c>
       <c r="H4" s="9">
-        <f t="shared" ref="H4:H13" si="3">MAX(E4,F4,G4)</f>
+        <f t="shared" ref="H4:H16" si="3">MAX(E4,F4,G4)</f>
         <v>16</v>
       </c>
     </row>
@@ -657,13 +660,10 @@
         <f t="shared" ref="F5:F9" si="4">ROUNDUP(D5^2*(D5+1)/6,0)</f>
         <v>25</v>
       </c>
-      <c r="G5" s="3">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="9">
         <f t="shared" si="3"/>
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -715,13 +715,10 @@
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
-      <c r="G7" s="3">
-        <f t="shared" si="2"/>
-        <v>86</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="9">
         <f t="shared" si="3"/>
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -773,13 +770,10 @@
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="2"/>
-        <v>183</v>
-      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="9">
         <f t="shared" si="3"/>
-        <v>183</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -831,475 +825,511 @@
         <f>ROUNDUP(D11^2*(D11+1)/6,0)</f>
         <v>600</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" si="2"/>
-        <v>844</v>
-      </c>
+      <c r="G11" s="3"/>
       <c r="H11" s="9">
         <f t="shared" si="3"/>
-        <v>844</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>400</v>
+        <v>256</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="1"/>
-        <v>399</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" ref="F12:F13" si="5">ROUNDUP(D12^2*(D12+1)/6,0)</f>
-        <v>1400</v>
+        <v>255</v>
+      </c>
+      <c r="F12" s="11">
+        <f>ROUNDUP(D12^2*(D12+1)/6,0)</f>
+        <v>726</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>1024</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>625</v>
+        <v>289</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="E13" s="13">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
-        <v>624</v>
+        <v>288</v>
       </c>
       <c r="F13" s="11">
-        <f t="shared" si="5"/>
-        <v>2709</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="2"/>
-        <v>3907</v>
-      </c>
-      <c r="H13" s="14">
+        <f>ROUNDUP(D13^2*(D13+1)/6,0)</f>
+        <v>867</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="9">
         <f t="shared" si="3"/>
-        <v>3907</v>
+        <v>867</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>900</v>
+        <v>324</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D14:D24" si="6">SQRT(C14)</f>
-        <v>30</v>
-      </c>
-      <c r="E14" s="13">
-        <f t="shared" ref="E14:E24" si="7">C14-1</f>
-        <v>899</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>323</v>
       </c>
       <c r="F14" s="11">
         <f>ROUNDUP(D14^2*(D14+1)/6,0)</f>
-        <v>4650</v>
-      </c>
-      <c r="G14" s="12">
-        <f>ROUNDUP(D14^3/4,0)</f>
-        <v>6750</v>
-      </c>
-      <c r="H14" s="14">
-        <f t="shared" ref="H14:H24" si="8">MAX(E14,F14,G14)</f>
-        <v>6750</v>
-      </c>
+        <v>1026</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="2"/>
+        <v>1458</v>
+      </c>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>400</v>
       </c>
       <c r="D15">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="7"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>399</v>
       </c>
       <c r="F15" s="2">
-        <f>ROUNDUP((D15^3-D15)/8,0)</f>
-        <v>3</v>
+        <f t="shared" ref="F15:F16" si="5">ROUNDUP(D15^2*(D15+1)/6,0)</f>
+        <v>1400</v>
       </c>
       <c r="G15" s="3">
-        <f>ROUNDUP((D15^3)/8,0)</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>2000</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="8"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>625</v>
       </c>
       <c r="D16">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="7"/>
-        <v>15</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" ref="F16:F24" si="9">ROUNDUP((D16^3-D16)/8,0)</f>
-        <v>8</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" ref="G16:G24" si="10">ROUNDUP((D16^3)/8,0)</f>
-        <v>8</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="1"/>
+        <v>624</v>
+      </c>
+      <c r="F16" s="11">
+        <f t="shared" si="5"/>
+        <v>2709</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="14">
+        <f t="shared" si="3"/>
+        <v>2709</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>900</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D27" si="6">SQRT(C17)</f>
+        <v>30</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" ref="E17:E27" si="7">C17-1</f>
+        <v>899</v>
+      </c>
+      <c r="F17" s="11">
+        <f>ROUNDUP(D17^2*(D17+1)/6,0)</f>
+        <v>4650</v>
+      </c>
+      <c r="G17" s="12">
+        <f>ROUNDUP(D17^3/4,0)</f>
+        <v>6750</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" ref="H17:H27" si="8">MAX(E17,F17,G17)</f>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
         <v>9</v>
-      </c>
-      <c r="C17">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="10"/>
-        <v>16</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="3"/>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>36</v>
       </c>
       <c r="D18">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="9"/>
-        <v>27</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
+        <f>ROUNDUP((D18^3-D18)/8,0)</f>
+        <v>3</v>
+      </c>
+      <c r="G18" s="3"/>
       <c r="H18" s="9">
         <f t="shared" si="8"/>
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3"/>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="9"/>
-        <v>42</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="3">
-        <f t="shared" si="10"/>
-        <v>43</v>
+        <f t="shared" ref="G19:G27" si="9">ROUNDUP((D19^3)/8,0)</f>
+        <v>8</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="8"/>
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3"/>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="7"/>
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="9"/>
-        <v>63</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="10"/>
-        <v>64</v>
-      </c>
+        <f t="shared" ref="F20:F26" si="10">ROUNDUP((D20^3-D20)/8,0)</f>
+        <v>15</v>
+      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="9">
         <f t="shared" si="8"/>
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="F21" s="2">
+        <v>35</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3">
         <f t="shared" si="9"/>
-        <v>90</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="10"/>
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="8"/>
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="7"/>
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="9"/>
-        <v>124</v>
-      </c>
-      <c r="G22" s="3">
         <f t="shared" si="10"/>
-        <v>125</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G22" s="3"/>
       <c r="H22" s="9">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3"/>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="7"/>
-        <v>224</v>
-      </c>
-      <c r="F23" s="2">
+        <v>63</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="3">
         <f t="shared" si="9"/>
-        <v>420</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="10"/>
-        <v>422</v>
+        <v>64</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="8"/>
-        <v>422</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3"/>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="9">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="7"/>
+        <v>99</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3">
+        <f t="shared" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="8"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3"/>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>225</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="7"/>
+        <v>224</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="10"/>
+        <v>420</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="9">
+        <f t="shared" si="8"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3"/>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>256</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E27" s="13">
         <f t="shared" si="7"/>
         <v>255</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F27" s="11"/>
+      <c r="G27" s="12">
         <f t="shared" si="9"/>
-        <v>510</v>
-      </c>
-      <c r="G24" s="12">
-        <f t="shared" si="10"/>
         <v>512</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H27" s="14">
         <f t="shared" si="8"/>
         <v>512</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="B25" t="s">
+    <row r="28" spans="1:8">
+      <c r="B28" t="s">
         <v>16</v>
       </c>
-      <c r="C25">
+      <c r="C28">
         <v>400</v>
       </c>
-      <c r="D25">
-        <f>SQRT(C25)</f>
+      <c r="D28">
+        <f>SQRT(C28)</f>
         <v>20</v>
       </c>
-      <c r="E25" s="1">
-        <f>C25-1</f>
+      <c r="E28" s="1">
+        <f>C28-1</f>
         <v>399</v>
       </c>
-      <c r="F25" s="2">
-        <f>ROUNDUP((D25^3-D25)/8,0)</f>
-        <v>998</v>
-      </c>
-      <c r="G25" s="3">
-        <f>ROUNDUP((D25^3)/8,0)</f>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3">
+        <f>ROUNDUP((D28^3)/8,0)</f>
         <v>1000</v>
       </c>
-      <c r="H25" s="9">
-        <f>MAX(E25,F25,G25)</f>
+      <c r="H28" s="9">
+        <f>MAX(E28,F28,G28)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="B26" t="s">
+    <row r="29" spans="1:8">
+      <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="C26">
+      <c r="C29">
         <v>625</v>
       </c>
-      <c r="D26">
-        <f>SQRT(C26)</f>
+      <c r="D29">
+        <f>SQRT(C29)</f>
         <v>25</v>
       </c>
-      <c r="E26" s="13">
-        <f>C26-1</f>
+      <c r="E29" s="13">
+        <f>C29-1</f>
         <v>624</v>
       </c>
-      <c r="F26" s="11">
-        <f>ROUNDUP((D26^3-D26)/8,0)</f>
+      <c r="F29" s="11">
+        <f>ROUNDUP((D29^3-D29)/8,0)</f>
         <v>1950</v>
       </c>
-      <c r="G26" s="12">
-        <f>ROUNDUP((D26^3)/8,0)</f>
-        <v>1954</v>
-      </c>
-      <c r="H26" s="14">
-        <f>MAX(E26,F26,G26)</f>
-        <v>1954</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="B27" t="s">
+      <c r="G29" s="12"/>
+      <c r="H29" s="14">
+        <f>MAX(E29,F29,G29)</f>
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="C27">
+      <c r="C30">
         <v>900</v>
       </c>
-      <c r="D27">
-        <f>SQRT(C27)</f>
+      <c r="D30">
+        <f>SQRT(C30)</f>
         <v>30</v>
       </c>
-      <c r="E27" s="13">
-        <f>C27-1</f>
+      <c r="E30" s="13">
+        <f>C30-1</f>
         <v>899</v>
       </c>
-      <c r="F27" s="11">
-        <f>ROUNDUP((D27^3-D27)/8,0)</f>
-        <v>3372</v>
-      </c>
-      <c r="G27" s="12">
-        <f>ROUNDUP((D27^3)/8,0)</f>
+      <c r="F30" s="11"/>
+      <c r="G30" s="12">
+        <f>ROUNDUP((D30^3)/8,0)</f>
         <v>3375</v>
       </c>
-      <c r="H27" s="14">
-        <f>MAX(E27,F27,G27)</f>
+      <c r="H30" s="14">
+        <f>MAX(E30,F30,G30)</f>
         <v>3375</v>
       </c>
     </row>
